--- a/src/main/resources/output-1.xlsx
+++ b/src/main/resources/output-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>Year</t>
   </si>
@@ -240,30 +240,30 @@
     <t>99233</t>
   </si>
   <si>
-    <t>8/6</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5f6e4f2g1f1f2e</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10/10</t>
   </si>
   <si>
     <t>0/0</t>
   </si>
   <si>
-    <t>5/2</t>
-  </si>
-  <si>
-    <t>5f6e4f2g1f1f2e</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>73/84</t>
-  </si>
-  <si>
-    <t>1889/0</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
     <t>035</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>17961</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>001</t>
@@ -741,37 +744,37 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
         <v>75</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>76</v>
       </c>
-      <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>80</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>81</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -797,37 +800,37 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
       <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
         <v>80</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>81</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -835,31 +838,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -868,19 +871,19 @@
         <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
         <v>37</v>
@@ -891,31 +894,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
@@ -924,19 +927,19 @@
         <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R10" t="s">
         <v>37</v>
